--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H2">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I2">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J2">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>756.1140006026102</v>
+        <v>297.5127916372733</v>
       </c>
       <c r="R2">
-        <v>6805.026005423491</v>
+        <v>2677.615124735461</v>
       </c>
       <c r="S2">
-        <v>0.3922037066831501</v>
+        <v>0.2087434528058039</v>
       </c>
       <c r="T2">
-        <v>0.39220370668315</v>
+        <v>0.2087434528058039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H3">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I3">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J3">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>80.333691467606</v>
+        <v>30.33718090615689</v>
       </c>
       <c r="R3">
-        <v>723.003223208454</v>
+        <v>273.034628155412</v>
       </c>
       <c r="S3">
-        <v>0.04166986927900414</v>
+        <v>0.02128543063945395</v>
       </c>
       <c r="T3">
-        <v>0.04166986927900413</v>
+        <v>0.02128543063945395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H4">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I4">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J4">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>50.200161322702</v>
+        <v>18.95756746320045</v>
       </c>
       <c r="R4">
-        <v>451.801451904318</v>
+        <v>170.618107168804</v>
       </c>
       <c r="S4">
-        <v>0.02603931329292181</v>
+        <v>0.01330116956413798</v>
       </c>
       <c r="T4">
-        <v>0.0260393132929218</v>
+        <v>0.01330116956413799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J5">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>594.8695046577834</v>
+        <v>619.8156986096833</v>
       </c>
       <c r="R5">
-        <v>5353.82554192005</v>
+        <v>5578.34128748715</v>
       </c>
       <c r="S5">
-        <v>0.3085646139783259</v>
+        <v>0.4348803569722457</v>
       </c>
       <c r="T5">
-        <v>0.3085646139783259</v>
+        <v>0.4348803569722458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J6">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
         <v>63.20219333669222</v>
@@ -818,10 +818,10 @@
         <v>568.8197400302299</v>
       </c>
       <c r="S6">
-        <v>0.0327835941106765</v>
+        <v>0.04434445991178095</v>
       </c>
       <c r="T6">
-        <v>0.03278359411067649</v>
+        <v>0.04434445991178095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J7">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
         <v>39.49476544010111</v>
       </c>
       <c r="R7">
-        <v>355.45288896091</v>
+        <v>355.4528889609101</v>
       </c>
       <c r="S7">
-        <v>0.02048632003619026</v>
+        <v>0.02771065291126519</v>
       </c>
       <c r="T7">
-        <v>0.02048632003619026</v>
+        <v>0.02771065291126519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H8">
         <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J8">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N8">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O8">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P8">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q8">
-        <v>293.0539163202301</v>
+        <v>305.34330042489</v>
       </c>
       <c r="R8">
-        <v>2637.48524688207</v>
+        <v>2748.08970382401</v>
       </c>
       <c r="S8">
-        <v>0.1520099246240715</v>
+        <v>0.2142375609164432</v>
       </c>
       <c r="T8">
-        <v>0.1520099246240715</v>
+        <v>0.2142375609164432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H9">
         <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J9">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P9">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q9">
         <v>31.135652663858</v>
       </c>
       <c r="R9">
-        <v>280.220873974722</v>
+        <v>280.2208739747219</v>
       </c>
       <c r="S9">
-        <v>0.01615036671061748</v>
+        <v>0.02184566117862908</v>
       </c>
       <c r="T9">
-        <v>0.01615036671061748</v>
+        <v>0.02184566117862908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H10">
         <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J10">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N10">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q10">
         <v>19.456528861786</v>
@@ -1066,10 +1066,10 @@
         <v>175.108759756074</v>
       </c>
       <c r="S10">
-        <v>0.01009229128504226</v>
+        <v>0.01365125510024007</v>
       </c>
       <c r="T10">
-        <v>0.01009229128504226</v>
+        <v>0.01365125510024007</v>
       </c>
     </row>
   </sheetData>
